--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -443,15 +443,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -759,103 +759,103 @@
         <v>41488.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.68</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.16</v>
+        <v>3.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.84</v>
+        <v>4.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.58</v>
+        <v>2.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>222.03</v>
+        <v>22.2</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.91</v>
+        <v>4.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.46</v>
+        <v>2.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.64</v>
+        <v>4.36</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41488.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>54.2</v>
+        <v>5.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41488.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>46.24</v>
+        <v>4.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41488.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.37</v>
-      </c>
       <c r="H6" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41488.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD7" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AE7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41488.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>36.36</v>
+        <v>3.64</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>30.28</v>
+        <v>3.03</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>45.21</v>
+        <v>4.52</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>20.45</v>
+        <v>2.04</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>192.83</v>
+        <v>19.28</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>36.4</v>
+        <v>3.64</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>24.7</v>
+        <v>2.47</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.85</v>
+        <v>4.09</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41488.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="V9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="W9" s="4" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41488.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>98.48</v>
+        <v>9.85</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>18.97</v>
+        <v>1.9</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,34 +448,34 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41488.34027777778</v>
+        <v>40751.13194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>4.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41488.34722222222</v>
+        <v>40751.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="AG3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.53</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>1.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41488.35416666666</v>
+        <v>40751.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.06</v>
+        <v>2.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.95</v>
+        <v>1.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.97</v>
+        <v>2.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.85</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.42</v>
+        <v>10.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.1</v>
+        <v>2.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.44</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41488.36111111111</v>
+        <v>40751.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.41</v>
+        <v>1.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.62</v>
+        <v>13.56</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.34</v>
-      </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.29</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.45</v>
+        <v>1.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41488.36805555555</v>
+        <v>40751.15971064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.41</v>
+        <v>9.24</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.33</v>
+        <v>7.01</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.93</v>
+        <v>19.72</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.8</v>
+        <v>16.62</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.34</v>
+        <v>7.07</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.38</v>
+        <v>29.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.55</v>
+        <v>10.86</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.24</v>
+        <v>4.96</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.36</v>
+        <v>7.55</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.42</v>
+        <v>8.02</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.39</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.12</v>
+        <v>2.28</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.34</v>
+        <v>7.05</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.49</v>
+        <v>10.2</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.29</v>
+        <v>5.9</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>4.51</v>
+        <v>101.27</v>
       </c>
       <c r="U6" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>0.68</v>
+        <v>14.52</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.28</v>
+        <v>5.57</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.26</v>
+        <v>5.51</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.28</v>
+        <v>5.87</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.43</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.27</v>
+        <v>26.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.21</v>
+        <v>3.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41488.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41488.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41488.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41488.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41488.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.11</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.23</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>46.81</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>186.4</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.34</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.59</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,11 +453,11 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.13194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.67</v>
+        <v>66.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.69</v>
+        <v>106.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.56</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,22 +759,22 @@
         <v>40751.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.46</v>
+        <v>6.457</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.17</v>
+        <v>5.174</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.23</v>
+        <v>13.231</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.7</v>
+        <v>11.702</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.67</v>
+        <v>4.671</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>16.44</v>
@@ -783,79 +783,79 @@
         <v>6.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.29</v>
+        <v>3.288</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.414</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.72</v>
+        <v>5.719</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.473</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.69</v>
+        <v>4.691</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.81</v>
+        <v>6.812</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>3.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>66.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.27</v>
+        <v>13.267</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.229</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.77</v>
+        <v>8.766999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.25</v>
+        <v>5.249</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.36</v>
+        <v>3.364</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.53</v>
+        <v>4.531</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.73</v>
+        <v>3.725</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.87</v>
+        <v>5.866</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.28</v>
+        <v>14.285</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.838</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.33</v>
+        <v>5.328</v>
       </c>
     </row>
     <row r="4">
@@ -863,91 +863,91 @@
         <v>40751.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.776999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.505</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.67</v>
+        <v>20.671</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.61</v>
+        <v>17.611</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.383</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.4</v>
+        <v>27.405</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.278</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.752000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.368</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.374</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.661</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.169</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.87</v>
+        <v>106.867</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.7</v>
+        <v>20.701</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.741</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.72</v>
+        <v>7.718</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.445</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.71</v>
+        <v>5.708</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.056</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.084</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
@@ -959,12 +959,12 @@
         <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.15277777778</v>
+        <v>40751.1527662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>12.15</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.15971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -964,91 +964,91 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.1527662037</v>
+        <v>40751.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.23</v>
+        <v>9.225</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.96</v>
+        <v>25.956</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.854</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.81</v>
+        <v>35.808</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.289</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.511</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.927</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.561</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.99</v>
+        <v>2.992</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.282999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.39</v>
+        <v>13.394</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.55</v>
+        <v>135.554</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.522</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.6</v>
+        <v>17.601</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.52</v>
+        <v>9.523</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.237</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.17</v>
+        <v>18.169</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.34</v>
+        <v>7.343</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.73</v>
+        <v>7.733</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.19</v>
+        <v>32.191</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.1</v>
+        <v>5.097</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.15971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.27</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_56.xlsx
+++ b/DATA_goal/Junction_Flooding_56.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -453,7 +453,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -964,91 +964,91 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.15277777778</v>
+        <v>40751.1527662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.147</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.225</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.581</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.956</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.854</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.311</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.808</v>
+        <v>35.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.289</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.511</v>
+        <v>6.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.927</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.561</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.992</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.282999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.394</v>
+        <v>13.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.752</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.232</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.554</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.522</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.601</v>
+        <v>17.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.523</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.237</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.169</v>
+        <v>18.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.343</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.227</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.733</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.191</v>
+        <v>32.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.097</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.686</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.15971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>10.69</v>
       </c>
     </row>
   </sheetData>
